--- a/data/pig_alr.xlsx
+++ b/data/pig_alr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">depth</t>
   </si>
@@ -54,6 +54,36 @@
   </si>
   <si>
     <t xml:space="preserve">TChl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">darkolivegreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goldenrod1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Younger Dryas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skyblue</t>
   </si>
 </sst>
 </file>
@@ -428,6 +458,15 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -472,6 +511,15 @@
       <c r="N2" t="n">
         <v>6.81023064909209</v>
       </c>
+      <c r="O2" t="n">
+        <v>1577</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -516,6 +564,15 @@
       <c r="N3" t="n">
         <v>6.98247306516148</v>
       </c>
+      <c r="O3" t="n">
+        <v>1593</v>
+      </c>
+      <c r="P3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -560,6 +617,11 @@
       <c r="N4" t="n">
         <v>6.81716295258499</v>
       </c>
+      <c r="O4" t="n">
+        <v>2375</v>
+      </c>
+      <c r="P4"/>
+      <c r="Q4"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -604,6 +666,15 @@
       <c r="N5" t="n">
         <v>6.62144559770397</v>
       </c>
+      <c r="O5" t="n">
+        <v>3596</v>
+      </c>
+      <c r="P5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -648,6 +719,15 @@
       <c r="N6" t="n">
         <v>7.20123053847468</v>
       </c>
+      <c r="O6" t="n">
+        <v>3694</v>
+      </c>
+      <c r="P6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -692,6 +772,15 @@
       <c r="N7" t="n">
         <v>7.56688021092765</v>
       </c>
+      <c r="O7" t="n">
+        <v>3792</v>
+      </c>
+      <c r="P7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -736,6 +825,15 @@
       <c r="N8" t="n">
         <v>7.40423042543367</v>
       </c>
+      <c r="O8" t="n">
+        <v>4150</v>
+      </c>
+      <c r="P8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -780,6 +878,15 @@
       <c r="N9" t="n">
         <v>7.64830117991196</v>
       </c>
+      <c r="O9" t="n">
+        <v>4361</v>
+      </c>
+      <c r="P9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -824,6 +931,11 @@
       <c r="N10" t="n">
         <v>6.78993974279762</v>
       </c>
+      <c r="O10" t="n">
+        <v>4675</v>
+      </c>
+      <c r="P10"/>
+      <c r="Q10"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -868,6 +980,15 @@
       <c r="N11" t="n">
         <v>6.39462700615347</v>
       </c>
+      <c r="O11" t="n">
+        <v>9224</v>
+      </c>
+      <c r="P11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -912,6 +1033,15 @@
       <c r="N12" t="n">
         <v>5.97815131804586</v>
       </c>
+      <c r="O12" t="n">
+        <v>9337</v>
+      </c>
+      <c r="P12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -956,6 +1086,15 @@
       <c r="N13" t="n">
         <v>7.07254911890788</v>
       </c>
+      <c r="O13" t="n">
+        <v>9398</v>
+      </c>
+      <c r="P13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1000,6 +1139,15 @@
       <c r="N14" t="n">
         <v>-3.04618381705009</v>
       </c>
+      <c r="O14" t="n">
+        <v>9467</v>
+      </c>
+      <c r="P14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1044,6 +1192,11 @@
       <c r="N15" t="n">
         <v>6.22768225790946</v>
       </c>
+      <c r="O15" t="n">
+        <v>10933</v>
+      </c>
+      <c r="P15"/>
+      <c r="Q15"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1088,6 +1241,11 @@
       <c r="N16" t="n">
         <v>7.18187327385637</v>
       </c>
+      <c r="O16" t="n">
+        <v>11012</v>
+      </c>
+      <c r="P16"/>
+      <c r="Q16"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1132,6 +1290,11 @@
       <c r="N17" t="n">
         <v>6.08237871495861</v>
       </c>
+      <c r="O17" t="n">
+        <v>11066</v>
+      </c>
+      <c r="P17"/>
+      <c r="Q17"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1176,6 +1339,11 @@
       <c r="N18" t="n">
         <v>6.23344947955555</v>
       </c>
+      <c r="O18" t="n">
+        <v>11184</v>
+      </c>
+      <c r="P18"/>
+      <c r="Q18"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1220,6 +1388,11 @@
       <c r="N19" t="n">
         <v>3.86157146193205</v>
       </c>
+      <c r="O19" t="n">
+        <v>11290</v>
+      </c>
+      <c r="P19"/>
+      <c r="Q19"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1264,6 +1437,15 @@
       <c r="N20" t="n">
         <v>5.38541207339897</v>
       </c>
+      <c r="O20" t="n">
+        <v>11901</v>
+      </c>
+      <c r="P20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1308,6 +1490,15 @@
       <c r="N21" t="n">
         <v>8.03966693805117</v>
       </c>
+      <c r="O21" t="n">
+        <v>12187</v>
+      </c>
+      <c r="P21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1352,6 +1543,15 @@
       <c r="N22" t="n">
         <v>6.23111117052121</v>
       </c>
+      <c r="O22" t="n">
+        <v>12321</v>
+      </c>
+      <c r="P22" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1396,6 +1596,15 @@
       <c r="N23" t="n">
         <v>7.05701975502066</v>
       </c>
+      <c r="O23" t="n">
+        <v>12441</v>
+      </c>
+      <c r="P23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1439,6 +1648,15 @@
       </c>
       <c r="N24" t="n">
         <v>5.6605965772066</v>
+      </c>
+      <c r="O24" t="n">
+        <v>12630</v>
+      </c>
+      <c r="P24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
